--- a/doc/Anforderungsanalyse.xlsx
+++ b/doc/Anforderungsanalyse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Git_repos\erp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{936AED76-78A7-4A5C-8412-0F644B5635D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688A7B6C-2F2F-4785-9850-D16859F8B0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Szenarien</t>
   </si>
@@ -147,6 +147,60 @@
   </si>
   <si>
     <t>ETW (Eintreffenswahrscheinlichkeit)</t>
+  </si>
+  <si>
+    <t>Populate DB</t>
+  </si>
+  <si>
+    <t>Umsatz pro Artikel</t>
+  </si>
+  <si>
+    <t>Manliste erstellen</t>
+  </si>
+  <si>
+    <t>Add Debitor,Kreditor,Artikel</t>
+  </si>
+  <si>
+    <t>Daten vollständig und korrekt erfasst</t>
+  </si>
+  <si>
+    <t>Daten sind unfollständig</t>
+  </si>
+  <si>
+    <t>Daten sind Fehlerhaft</t>
+  </si>
+  <si>
+    <t>Korrekte Umsatz berechnung</t>
+  </si>
+  <si>
+    <t>Falsche umsatzberechung</t>
+  </si>
+  <si>
+    <t>Manliste korrekt</t>
+  </si>
+  <si>
+    <t>Manliste Inkorekt</t>
+  </si>
+  <si>
+    <t>Lagermenge verwalten</t>
+  </si>
+  <si>
+    <t>Korrekte lager buchungen</t>
+  </si>
+  <si>
+    <t>fehlerhafte lager buchung</t>
+  </si>
+  <si>
+    <t>Bestellverwaltung</t>
+  </si>
+  <si>
+    <t>Korrekte buchung</t>
+  </si>
+  <si>
+    <t>Fehlerhafte Buchung</t>
+  </si>
+  <si>
+    <t>fehlerhafte erfassung</t>
   </si>
 </sst>
 </file>
@@ -199,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -395,32 +443,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -429,13 +464,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,11 +485,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J27"/>
+  <dimension ref="A3:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -784,30 +840,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -816,184 +872,350 @@
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="2"/>
+    <row r="5" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="35">
+        <v>3</v>
+      </c>
+      <c r="F5" s="35">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26">
+        <f>E5*F5</f>
+        <v>12</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="35">
+        <v>3</v>
+      </c>
+      <c r="F6" s="35">
+        <v>4</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" ref="G6:G18" si="0">E6*F6</f>
+        <v>12</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="20"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="21"/>
+      <c r="A8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35">
+        <v>5</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="21"/>
+      <c r="A9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="35">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <v>5</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="21"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="21"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="21"/>
+      <c r="A12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="35">
+        <v>3</v>
+      </c>
+      <c r="F12" s="35">
+        <v>4</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35">
+        <v>5</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="35">
+        <v>3</v>
+      </c>
+      <c r="F15" s="35">
+        <v>4</v>
+      </c>
+      <c r="G15" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1003,7 +1225,7 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G12">
+  <conditionalFormatting sqref="G5:G18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1015,8 +1237,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G12">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="G5:G18">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1027,7 +1249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G13">
+  <conditionalFormatting sqref="G5:G18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1077,24 +1299,24 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="38"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1103,48 +1325,48 @@
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="9"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="9"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="30"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -1180,28 +1402,28 @@
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="34"/>
+      <c r="H14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1218,15 +1440,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df43c7bf-1920-4afb-ae3a-915f68bf21de" xsi:nil="true"/>
@@ -1235,6 +1448,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1425,20 +1647,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA778EF7-B3A8-491D-A280-99B648DAE735}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75AF4AC-AB24-4F56-8ED7-3344E075A4FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="df43c7bf-1920-4afb-ae3a-915f68bf21de"/>
     <ds:schemaRef ds:uri="df544a69-94ff-491d-931c-62a82d5ededc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA778EF7-B3A8-491D-A280-99B648DAE735}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
